--- a/xlsx/改革开放_intext.xlsx
+++ b/xlsx/改革开放_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中華人民共和國</t>
   </si>
   <si>
-    <t>政策_政策_政治_改革开放</t>
+    <t>体育运动_体育运动_竞争_改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
